--- a/DCF Models/ARCB.xlsx
+++ b/DCF Models/ARCB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\DCF Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD458C1D-9E97-4380-B084-E00EBE4F5912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DECE8C4-6616-4A18-B9DC-CF1C475B3C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13560" yWindow="6210" windowWidth="30720" windowHeight="15045" xr2:uid="{3056AFBF-C33C-44A0-B793-E31A92920761}"/>
+    <workbookView xWindow="17250" yWindow="3420" windowWidth="37320" windowHeight="15045" xr2:uid="{3056AFBF-C33C-44A0-B793-E31A92920761}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -802,7 +802,7 @@
   <dimension ref="C2:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,10 +953,10 @@
   <dimension ref="A2:DQ140"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M50" sqref="M50:T50"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
